--- a/Input/Files/defaultInput.xlsx
+++ b/Input/Files/defaultInput.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacopo\Desktop\Academic\GitHub\KBE_final\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>Component:</t>
   </si>
@@ -297,18 +292,18 @@
     <t>Maximum takeoff weight</t>
   </si>
   <si>
-    <t>Aircraft wing loading</t>
+    <t>Aircraft cruise altitude</t>
+  </si>
+  <si>
+    <t>Cruise Mach number</t>
+  </si>
+  <si>
+    <t>Wing loading</t>
   </si>
   <si>
     <t>kg / m^2</t>
   </si>
   <si>
-    <t>Cruise Mach number</t>
-  </si>
-  <si>
-    <t>Aircraft cruise altitude</t>
-  </si>
-  <si>
     <t>Evaluations:</t>
   </si>
   <si>
@@ -348,6 +343,9 @@
     <t>Wing position</t>
   </si>
   <si>
+    <t>low wing</t>
+  </si>
+  <si>
     <t>Wing:</t>
   </si>
   <si>
@@ -357,49 +355,64 @@
     <t>Aspect ratio</t>
   </si>
   <si>
+    <t>Static pressure at cruise altitude</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Wing tip chord</t>
+  </si>
+  <si>
+    <t>Wing root chord</t>
+  </si>
+  <si>
+    <t>Wing position fraction of the cylinder</t>
+  </si>
+  <si>
+    <t>Wing average thickness to chord ratio</t>
+  </si>
+  <si>
+    <t>Aircraft speed at cruise altitude</t>
+  </si>
+  <si>
+    <t>Lift coefficient of aircraft in cruise condition</t>
+  </si>
+  <si>
+    <t>Static temperature at cruise altitude</t>
+  </si>
+  <si>
+    <t>Wing position fraction of the fuselage</t>
+  </si>
+  <si>
+    <t>Sweep at quarter chord</t>
+  </si>
+  <si>
+    <t>Static density at cruise altitude</t>
+  </si>
+  <si>
+    <t>Wing reference surface</t>
+  </si>
+  <si>
+    <t>Dihedral angle</t>
+  </si>
+  <si>
+    <t>Aircraft Mach Dive Divergence</t>
+  </si>
+  <si>
+    <t>Static viscosity at cruise altitude</t>
+  </si>
+  <si>
+    <t>Dynamic pressure at aircraft speed and altitude</t>
+  </si>
+  <si>
+    <t>Aircraft Reynolds number</t>
+  </si>
+  <si>
     <t>Wing taper ratio</t>
   </si>
   <si>
-    <t>Sweep at quarter chord</t>
-  </si>
-  <si>
-    <t>Wing reference surface</t>
-  </si>
-  <si>
-    <t>Dynamic pressure at aircraft speed and altitude</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
     <t>Wing span</t>
-  </si>
-  <si>
-    <t>Static pressure at cruise altitude</t>
-  </si>
-  <si>
-    <t>Wing tip chord</t>
-  </si>
-  <si>
-    <t>Wing root chord</t>
-  </si>
-  <si>
-    <t>Wing position fraction of the cylinder</t>
-  </si>
-  <si>
-    <t>Wing average thickness to chord ratio</t>
-  </si>
-  <si>
-    <t>Lift coefficient of aircraft in cruise condition</t>
-  </si>
-  <si>
-    <t>Wing position fraction of the fuselage</t>
-  </si>
-  <si>
-    <t>Dihedral angle</t>
-  </si>
-  <si>
-    <t>Aircraft Mach Dive Divergence</t>
   </si>
   <si>
     <t>Wing Mean Aerodynamic Chord</t>
@@ -411,19 +424,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -439,25 +453,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -745,21 +751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -781,186 +786,192 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.2250000000000001</v>
+      <c r="C6" s="1" t="n">
+        <v>1.225</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>1375</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>340.3</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1" t="n">
         <v>123200</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="1" t="n">
         <v>178.69</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0416700000000001</v>
+      <c r="C20" s="1" t="n">
+        <v>1.04167</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
-        <v>4.0098000000000003</v>
+      <c r="C21" s="1" t="n">
+        <v>4.0098</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1">
-        <v>3.0073500000000002</v>
+      <c r="C22" s="1" t="n">
+        <v>3.00735</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>1.1034200000000001</v>
+      <c r="C23" s="1" t="n">
+        <v>1.10342</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1" t="n">
         <v>1.31386</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.36083799999999999</v>
+      <c r="C25" s="1" t="n">
+        <v>0.360838</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -968,142 +979,148 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="1" t="n">
         <v>4.09185</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="1" t="n">
         <v>0.103981</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
-        <v>2.8643000000000001</v>
+      <c r="C37" s="1" t="n">
+        <v>2.8643</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="1" t="n">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1">
-        <v>4.6954000000000002</v>
+      <c r="C39" s="1" t="n">
+        <v>4.6954</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
-        <v>3.5141800000000001</v>
+      <c r="C40" s="1" t="n">
+        <v>3.51418</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="1" t="n">
         <v>37.5</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="n">
         <v>16.331</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="n">
         <v>14.43</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1111,175 +1128,181 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="1" t="n">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="1" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="n">
         <v>1.6</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="1" t="n">
         <v>3.6</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="1" t="n">
         <v>3.8</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1">
-        <v>15.424099999999999</v>
+      <c r="C61" s="1" t="n">
+        <v>15.4241</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="1" t="n">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="1" t="n">
         <v>27.4815</v>
       </c>
       <c r="D63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="B64" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="1" t="n">
         <v>14.2</v>
       </c>
       <c r="D65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="1" t="n">
         <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1287,110 +1310,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="1" t="n">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="B74" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="B78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="B80" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="1">
-        <v>23.908200000000001</v>
+      <c r="C80" s="1" t="n">
+        <v>23.9082</v>
       </c>
       <c r="D80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="1">
-        <v>1.2842899999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="n">
+        <v>1.28429</v>
+      </c>
+      <c r="D81" t="s"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="B82" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="1">
-        <v>5.1371599999999997</v>
+      <c r="C82" s="1" t="n">
+        <v>5.13716</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="1">
-        <v>16.422799999999999</v>
+      <c r="C83" s="1" t="n">
+        <v>16.4228</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="1" t="n">
         <v>8.44</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -1398,134 +1423,139 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="B88" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="1" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="B90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="B92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="1" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s"/>
+    </row>
+    <row r="95" spans="1:4">
       <c r="B95" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="1">
-        <v>1.4489399999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="n">
+        <v>1.44894</v>
+      </c>
+      <c r="D95" t="s"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="B96" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="1">
-        <v>38.769599999999997</v>
+      <c r="C96" s="1" t="n">
+        <v>38.7696</v>
       </c>
       <c r="D96" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="B97" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="1">
-        <v>1.1965600000000001</v>
+      <c r="C97" s="1" t="n">
+        <v>1.19656</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="1" t="n">
         <v>21.9238</v>
       </c>
       <c r="D98" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="B99" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="1">
-        <v>2.9914000000000001</v>
+      <c r="C99" s="1" t="n">
+        <v>2.9914</v>
       </c>
       <c r="D99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="B100" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="1" t="n">
         <v>19.3276</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="B101" t="s">
         <v>87</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="B102" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="1">
-        <v>10.469900000000001</v>
+      <c r="C102" s="1" t="n">
+        <v>10.4699</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="B103" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="1">
-        <v>2.2221799999999998</v>
+      <c r="C103" s="1" t="n">
+        <v>2.22218</v>
       </c>
       <c r="D103" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -1533,58 +1563,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="B107" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="1" t="n">
         <v>422713</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="B108" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D109" t="s"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="D108" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D110" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4">
       <c r="B111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="B113" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -1592,41 +1623,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="B118" t="s">
         <v>97</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="1" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s"/>
+    </row>
+    <row r="119" spans="1:4">
       <c r="B119" t="s">
         <v>98</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="1" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s"/>
+    </row>
+    <row r="120" spans="1:4">
       <c r="B120" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="B122" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="B124" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="1" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s"/>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -1634,251 +1668,316 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="B128" t="s">
         <v>101</v>
       </c>
       <c r="C128" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s"/>
+    </row>
+    <row r="129" spans="1:4">
       <c r="B129" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="B130" t="s">
         <v>104</v>
       </c>
       <c r="C130" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s"/>
+    </row>
+    <row r="131" spans="1:4">
       <c r="B131" t="s">
         <v>106</v>
       </c>
       <c r="C131" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s"/>
+    </row>
+    <row r="132" spans="1:4">
       <c r="B132" t="s">
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D132" t="s"/>
+    </row>
+    <row r="133" spans="1:4">
       <c r="B133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="B135" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="B140" t="s">
-        <v>110</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D140" t="s"/>
+    </row>
+    <row r="141" spans="1:4">
       <c r="B141" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" s="1">
+        <v>112</v>
+      </c>
+      <c r="C141" s="1" t="n">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s"/>
+    </row>
+    <row r="142" spans="1:4">
       <c r="B142" t="s">
         <v>35</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="1" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s"/>
+    </row>
+    <row r="143" spans="1:4">
       <c r="B143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="B145" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="B147" t="s">
-        <v>112</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.29957499999999998</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>26396.5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="B148" t="s">
-        <v>113</v>
-      </c>
-      <c r="C148" s="1">
-        <v>28.769600000000001</v>
+        <v>115</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>1.45399</v>
       </c>
       <c r="D148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>4.85352</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D150" t="s"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>0.149917</v>
+      </c>
+      <c r="D151" t="s"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>230.565</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>0.456398</v>
+      </c>
+      <c r="D153" t="s"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>223.15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>0.444953</v>
+      </c>
+      <c r="D155" t="s"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>28.7696</v>
+      </c>
+      <c r="D156" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>114</v>
-      </c>
-      <c r="C149" s="1">
-        <v>84.542599999999993</v>
-      </c>
-      <c r="D149" t="s">
+    <row r="157" spans="1:4">
+      <c r="B157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>0.412162</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>84.54259999999999</v>
+      </c>
+      <c r="D158" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>115</v>
-      </c>
-      <c r="C150" s="1">
-        <v>10955.3</v>
-      </c>
-      <c r="D150" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="1">
-        <v>26.806899999999999</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>118</v>
-      </c>
-      <c r="C152" s="1">
-        <v>26396.5</v>
-      </c>
-      <c r="D152" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>119</v>
-      </c>
-      <c r="C153" s="1">
-        <v>1.4539899999999999</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>120</v>
-      </c>
-      <c r="C154" s="1">
-        <v>4.8535199999999996</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>121</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.14991699999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="1">
-        <v>0.45639800000000003</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0.44495299999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="B159" t="s">
-        <v>125</v>
-      </c>
-      <c r="C159" s="1">
+        <v>126</v>
+      </c>
+      <c r="C159" s="1" t="n">
         <v>2.12304</v>
       </c>
       <c r="D159" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="B160" t="s">
-        <v>126</v>
-      </c>
-      <c r="C160" s="1">
+        <v>127</v>
+      </c>
+      <c r="C160" s="1" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160" t="s"/>
+    </row>
+    <row r="161" spans="1:4">
       <c r="B161" t="s">
-        <v>127</v>
-      </c>
-      <c r="C161" s="1">
+        <v>128</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>1.45704e-05</v>
+      </c>
+      <c r="D161" t="s"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="B162" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>10955.3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="B163" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>22560900</v>
+      </c>
+      <c r="D163" t="s"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>0.299575</v>
+      </c>
+      <c r="D164" t="s"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="B165" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>26.8069</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="B166" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="1" t="n">
         <v>3.45913</v>
       </c>
-      <c r="D161" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>128</v>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Input/Files/defaultInput.xlsx
+++ b/Input/Files/defaultInput.xlsx
@@ -28,7 +28,7 @@
     <t>Unit:</t>
   </si>
   <si>
-    <t>Engine:</t>
+    <t>Engine</t>
   </si>
   <si>
     <t>Inputs:</t>
@@ -115,7 +115,7 @@
     <t>Diameter of the engine core</t>
   </si>
   <si>
-    <t>Vtp:</t>
+    <t>Vtp</t>
   </si>
   <si>
     <t>Rudder chord ratio over root chord</t>
@@ -163,7 +163,7 @@
     <t>Vertical tail arm</t>
   </si>
   <si>
-    <t>Landing Gear:</t>
+    <t>Landing Gear</t>
   </si>
   <si>
     <t>Lateral gear position</t>
@@ -220,7 +220,7 @@
     <t>Main landing gear length</t>
   </si>
   <si>
-    <t>Fuselage:</t>
+    <t>Fuselage</t>
   </si>
   <si>
     <t>Fuselage Length</t>
@@ -250,7 +250,7 @@
     <t>Tail length</t>
   </si>
   <si>
-    <t>Htp:</t>
+    <t>Htp</t>
   </si>
   <si>
     <t>Horizontal height of htp in percentage of vtp</t>
@@ -286,7 +286,7 @@
     <t>Horizontal tail Mean Aerodynamic Chord</t>
   </si>
   <si>
-    <t>Performance:</t>
+    <t>Performance</t>
   </si>
   <si>
     <t>Maximum takeoff weight</t>
@@ -304,7 +304,7 @@
     <t>kg / m^2</t>
   </si>
   <si>
-    <t>Evaluations:</t>
+    <t>Evaluations</t>
   </si>
   <si>
     <t>Wing airfoil efficiency factor</t>
@@ -316,7 +316,7 @@
     <t>Ciao</t>
   </si>
   <si>
-    <t>Configuration:</t>
+    <t>Configuration</t>
   </si>
   <si>
     <t>Engine location</t>
@@ -346,7 +346,7 @@
     <t>low wing</t>
   </si>
   <si>
-    <t>Wing:</t>
+    <t>Wing</t>
   </si>
   <si>
     <t>Airfoil Mach technology parameter</t>

--- a/Input/Files/defaultInput.xlsx
+++ b/Input/Files/defaultInput.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacopo\Desktop\Academic\GitHub\KBE_final\Input\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>Component:</t>
   </si>
@@ -331,9 +336,6 @@
     <t>Tail type</t>
   </si>
   <si>
-    <t>T tail</t>
-  </si>
-  <si>
     <t>Aircraft name</t>
   </si>
   <si>
@@ -419,25 +421,27 @@
   </si>
   <si>
     <t>EOF</t>
+  </si>
+  <si>
+    <t>cruciform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -453,17 +457,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -751,20 +763,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -786,192 +797,186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1.225</v>
+      <c r="C6" s="1">
+        <v>1.2250000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0.97</v>
       </c>
-      <c r="D7" t="s"/>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>1375</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>340.3</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>-0.15</v>
       </c>
-      <c r="D10" t="s"/>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" t="s"/>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>0.75</v>
       </c>
-      <c r="D12" t="s"/>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>0.75</v>
       </c>
-      <c r="D13" t="s"/>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>123200</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>178.69</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>1.04167</v>
+      <c r="C20" s="1">
+        <v>1.0416700000000001</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>4.0098</v>
+      <c r="C21" s="1">
+        <v>4.0098000000000003</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>3.00735</v>
+      <c r="C22" s="1">
+        <v>3.0073500000000002</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1.10342</v>
+      <c r="C23" s="1">
+        <v>1.1034200000000001</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>1.31386</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>0.360838</v>
+      <c r="C25" s="1">
+        <v>0.36083799999999999</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -979,148 +984,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>0.35</v>
       </c>
-      <c r="D29" t="s"/>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>0.5</v>
       </c>
-      <c r="D30" t="s"/>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>4.09185</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>0.103981</v>
       </c>
-      <c r="D36" t="s"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>2.8643</v>
+      <c r="C37" s="1">
+        <v>2.8643000000000001</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>1.35</v>
       </c>
-      <c r="D38" t="s"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>4.6954</v>
+      <c r="C39" s="1">
+        <v>4.6954000000000002</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>3.51418</v>
+      <c r="C40" s="1">
+        <v>3.5141800000000001</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>37.5</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>16.331</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" t="s"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>0.7</v>
       </c>
-      <c r="D44" t="s"/>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>14.43</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1128,181 +1127,175 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>1.8</v>
       </c>
-      <c r="D49" t="s"/>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>0.3</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>0.08</v>
       </c>
-      <c r="D51" t="s"/>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>0.6</v>
       </c>
-      <c r="D52" t="s"/>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>1.6</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>0.5</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>3.6</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="1">
         <v>3.8</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>15.4241</v>
+      <c r="C61" s="1">
+        <v>15.424099999999999</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="1">
         <v>16.2</v>
       </c>
-      <c r="D62" t="s"/>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>27.4815</v>
       </c>
       <c r="D63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s"/>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>14.2</v>
       </c>
       <c r="D65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="1">
         <v>2.4</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
-      <c r="D67" t="s"/>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1310,112 +1303,110 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="1">
         <v>30</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="1">
         <v>2.11</v>
       </c>
-      <c r="D73" t="s"/>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C74" s="1">
         <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="C75" s="1">
         <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>23.9082</v>
+      <c r="C80" s="1">
+        <v>23.908200000000001</v>
       </c>
       <c r="D80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>1.28429</v>
-      </c>
-      <c r="D81" t="s"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="C81" s="1">
+        <v>1.2842899999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>5.13716</v>
+      <c r="C82" s="1">
+        <v>5.1371599999999997</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>16.4228</v>
+      <c r="C83" s="1">
+        <v>16.422799999999999</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="C84" s="1">
         <v>8.44</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -1423,139 +1414,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="C88" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="C89" s="1">
         <v>0.5</v>
       </c>
-      <c r="D89" t="s"/>
-    </row>
-    <row r="90" spans="1:4">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="C94" s="1">
         <v>0.4</v>
       </c>
-      <c r="D94" t="s"/>
-    </row>
-    <row r="95" spans="1:4">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>1.44894</v>
-      </c>
-      <c r="D95" t="s"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="C95" s="1">
+        <v>1.4489399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>38.7696</v>
+      <c r="C96" s="1">
+        <v>38.769599999999997</v>
       </c>
       <c r="D96" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>1.19656</v>
+      <c r="C97" s="1">
+        <v>1.1965600000000001</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="C98" s="1">
         <v>21.9238</v>
       </c>
       <c r="D98" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="1" t="n">
-        <v>2.9914</v>
+      <c r="C99" s="1">
+        <v>2.9914000000000001</v>
       </c>
       <c r="D99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="C100" s="1">
         <v>19.3276</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>87</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="C101" s="1">
         <v>5</v>
       </c>
-      <c r="D101" t="s"/>
-    </row>
-    <row r="102" spans="1:4">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>10.4699</v>
+      <c r="C102" s="1">
+        <v>10.469900000000001</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>89</v>
       </c>
-      <c r="C103" s="1" t="n">
-        <v>2.22218</v>
+      <c r="C103" s="1">
+        <v>2.2221799999999998</v>
       </c>
       <c r="D103" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -1563,59 +1549,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="C107" s="1">
         <v>422713</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="1" t="n">
+      <c r="C108" s="1">
         <v>10000</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="1" t="n">
+      <c r="C109" s="1">
         <v>0.77</v>
       </c>
-      <c r="D109" t="s"/>
-    </row>
-    <row r="110" spans="1:4">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="1" t="n">
+      <c r="C110" s="1">
         <v>5000</v>
       </c>
       <c r="D110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -1623,44 +1608,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>97</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="C118" s="1">
         <v>0.95</v>
       </c>
-      <c r="D118" t="s"/>
-    </row>
-    <row r="119" spans="1:4">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>98</v>
       </c>
-      <c r="C119" s="1" t="n">
+      <c r="C119" s="1">
         <v>0.95</v>
       </c>
-      <c r="D119" t="s"/>
-    </row>
-    <row r="120" spans="1:4">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="1" t="n">
+      <c r="C124" s="1">
         <v>0.95</v>
       </c>
-      <c r="D124" t="s"/>
-    </row>
-    <row r="126" spans="1:4">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -1668,316 +1650,300 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>101</v>
       </c>
       <c r="C128" t="s">
         <v>102</v>
       </c>
-      <c r="D128" t="s"/>
-    </row>
-    <row r="129" spans="1:4">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="1" t="n">
+      <c r="C129" s="1">
         <v>2</v>
       </c>
-      <c r="D129" t="s"/>
-    </row>
-    <row r="130" spans="1:4">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>104</v>
       </c>
       <c r="C130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>105</v>
       </c>
-      <c r="D130" t="s"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>106</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>107</v>
       </c>
-      <c r="D131" t="s"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>108</v>
       </c>
-      <c r="C132" t="s">
-        <v>109</v>
-      </c>
-      <c r="D132" t="s"/>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>111</v>
       </c>
-      <c r="C140" s="1" t="n">
-        <v>0.9350000000000001</v>
-      </c>
-      <c r="D140" t="s"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="B141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" s="1" t="n">
+      <c r="C141" s="1">
         <v>8.5</v>
       </c>
-      <c r="D141" t="s"/>
-    </row>
-    <row r="142" spans="1:4">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>35</v>
       </c>
-      <c r="C142" s="1" t="n">
+      <c r="C142" s="1">
         <v>0.5</v>
       </c>
-      <c r="D142" t="s"/>
-    </row>
-    <row r="143" spans="1:4">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="1">
+        <v>26396.5</v>
+      </c>
+      <c r="D147" t="s">
         <v>113</v>
       </c>
-      <c r="C147" s="1" t="n">
-        <v>26396.5</v>
-      </c>
-      <c r="D147" t="s">
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="B148" t="s">
+      <c r="C148" s="1">
+        <v>1.4539899999999999</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>115</v>
       </c>
-      <c r="C148" s="1" t="n">
-        <v>1.45399</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149" t="s">
+      <c r="C149" s="1">
+        <v>4.8535199999999996</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>116</v>
       </c>
-      <c r="C149" s="1" t="n">
-        <v>4.85352</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" t="s">
+      <c r="C150" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>117</v>
       </c>
-      <c r="C150" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D150" t="s"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" t="s">
+      <c r="C151" s="1">
+        <v>0.14991699999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>118</v>
       </c>
-      <c r="C151" s="1" t="n">
-        <v>0.149917</v>
-      </c>
-      <c r="D151" t="s"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="B152" t="s">
-        <v>119</v>
-      </c>
-      <c r="C152" s="1" t="n">
+      <c r="C152" s="1">
         <v>230.565</v>
       </c>
       <c r="D152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.45639800000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="1" t="n">
-        <v>0.456398</v>
-      </c>
-      <c r="D153" t="s"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="B154" t="s">
-        <v>121</v>
-      </c>
-      <c r="C154" s="1" t="n">
+      <c r="C154" s="1">
         <v>223.15</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.44495299999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="1" t="n">
-        <v>0.444953</v>
-      </c>
-      <c r="D155" t="s"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156" t="s">
-        <v>123</v>
-      </c>
-      <c r="C156" s="1" t="n">
-        <v>28.7696</v>
+      <c r="C156" s="1">
+        <v>28.769600000000001</v>
       </c>
       <c r="D156" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>124</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>0.412162</v>
+        <v>123</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.41216199999999997</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>125</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>84.54259999999999</v>
+        <v>124</v>
+      </c>
+      <c r="C158" s="1">
+        <v>84.542599999999993</v>
       </c>
       <c r="D158" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>126</v>
-      </c>
-      <c r="C159" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C159" s="1">
         <v>2.12304</v>
       </c>
       <c r="D159" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D160" t="s"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="B161" t="s">
+      <c r="C161" s="1">
+        <v>1.45704E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>128</v>
       </c>
-      <c r="C161" s="1" t="n">
-        <v>1.45704e-05</v>
-      </c>
-      <c r="D161" t="s"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="B162" t="s">
+      <c r="C162" s="1">
+        <v>10955.3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>129</v>
       </c>
-      <c r="C162" s="1" t="n">
-        <v>10955.3</v>
-      </c>
-      <c r="D162" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="B163" t="s">
+      <c r="C163" s="1">
+        <v>22560900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>130</v>
       </c>
-      <c r="C163" s="1" t="n">
-        <v>22560900</v>
-      </c>
-      <c r="D163" t="s"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="B164" t="s">
+      <c r="C164" s="1">
+        <v>0.29957499999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>131</v>
       </c>
-      <c r="C164" s="1" t="n">
-        <v>0.299575</v>
-      </c>
-      <c r="D164" t="s"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="B165" t="s">
+      <c r="C165" s="1">
+        <v>26.806899999999999</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>132</v>
       </c>
-      <c r="C165" s="1" t="n">
-        <v>26.8069</v>
-      </c>
-      <c r="D165" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="B166" t="s">
+      <c r="C166" s="1">
+        <v>3.45913</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>133</v>
       </c>
-      <c r="C166" s="1" t="n">
-        <v>3.45913</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>